--- a/biology/Médecine/1102_en_santé_et_médecine/1102_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1102_en_santé_et_médecine/1102_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1102_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1102_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1102 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1102_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1102_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1102-1107 : poursuivant ses recherches en acupuncture, le médecin chinois Qi-Lao « pratique des vivisections sur l'homme[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1102-1107 : poursuivant ses recherches en acupuncture, le médecin chinois Qi-Lao « pratique des vivisections sur l'homme ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1102_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1102_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,14 +555,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation à Londres de l'hôpital Saint-Barthélemy (St. Bartholomew's Hospital), destiné par Rahère, son fondateur, « aux malades indigents, aux femmes enceintes et, jusqu'à l'âge de sept ans, aux enfants de celles qui sont mortes en couches[2] ».
-Fondation dans le diocèse de Langres, entre Aubepierre et Dancevoir, d'une « maison hospitalière destinée à recevoir les pauvres, les pèlerins, les voyageurs » et qui est à l'origine de l'abbaye de Longuay[3].
-Fondation en Chine, au Hebei, sous les Song, du premier des « hôpitaux du Bon Secours » (anji fang), établissements voués aux soins des malades et des indigents[4].
-Vers 1101-1102 : Girard II, évêque d'Angoulême, crée près de Lunesse, sur l'actuelle commune de Soyaux, une maladrerie qui prendra le nom de Saint-Lazare et à l'emplacement de laquelle, en 1623, sera fondé l'hôpital Saint-Roch[5].
-Avant 1102 : fondation de la léproserie de Breteuil, au diocèse d'Évreux en Normandie[6].
-1102-1107 : Robert du Puy fait relever de ses ruines la maison-Dieu de Montmorillon, en Poitou, où les malades seront accueillis et soignés jusqu'à la Révolution[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation à Londres de l'hôpital Saint-Barthélemy (St. Bartholomew's Hospital), destiné par Rahère, son fondateur, « aux malades indigents, aux femmes enceintes et, jusqu'à l'âge de sept ans, aux enfants de celles qui sont mortes en couches ».
+Fondation dans le diocèse de Langres, entre Aubepierre et Dancevoir, d'une « maison hospitalière destinée à recevoir les pauvres, les pèlerins, les voyageurs » et qui est à l'origine de l'abbaye de Longuay.
+Fondation en Chine, au Hebei, sous les Song, du premier des « hôpitaux du Bon Secours » (anji fang), établissements voués aux soins des malades et des indigents.
+Vers 1101-1102 : Girard II, évêque d'Angoulême, crée près de Lunesse, sur l'actuelle commune de Soyaux, une maladrerie qui prendra le nom de Saint-Lazare et à l'emplacement de laquelle, en 1623, sera fondé l'hôpital Saint-Roch.
+Avant 1102 : fondation de la léproserie de Breteuil, au diocèse d'Évreux en Normandie.
+1102-1107 : Robert du Puy fait relever de ses ruines la maison-Dieu de Montmorillon, en Poitou, où les malades seront accueillis et soignés jusqu'à la Révolution.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1102_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1102_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1082-1102 : fl. Guillaume, médecin cité dans une charte de l'abbaye Saint-Vincent du Mans[8].
-Vers 1102-1129 : fl. Bernard, médecin, chanoine de Notre-Dame de Chartres et moine de l'abbaye de Josaphat[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1082-1102 : fl. Guillaume, médecin cité dans une charte de l'abbaye Saint-Vincent du Mans.
+Vers 1102-1129 : fl. Bernard, médecin, chanoine de Notre-Dame de Chartres et moine de l'abbaye de Josaphat.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1102_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1102_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1101 ou 1102 : Abu'l Hasan Said ibn Hibatullah (né à une date inconnue), médecin, maître d'Abu'l Barakat Hibatullah ibn Malka, qui aura à son tour pour disciple Fakhr al-Din al-Razi[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1101 ou 1102 : Abu'l Hasan Said ibn Hibatullah (né à une date inconnue), médecin, maître d'Abu'l Barakat Hibatullah ibn Malka, qui aura à son tour pour disciple Fakhr al-Din al-Razi.
 </t>
         </is>
       </c>
